--- a/chaytan/out/out.xlsx
+++ b/chaytan/out/out.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="42">
   <si>
     <t>Area</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>1158.4908</t>
+  </si>
+  <si>
+    <t>1099.7313</t>
   </si>
   <si>
     <t>163655.0</t>
@@ -494,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,7 +540,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -551,7 +554,7 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -565,7 +568,7 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -587,13 +590,13 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -618,7 +621,7 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -632,28 +635,24 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1">
-        <v>-98.572762457609</v>
-      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -664,24 +663,28 @@
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1">
+        <v>112.3923907594519</v>
+      </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
         <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -695,25 +698,21 @@
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1">
-        <v>-98.89510608152028</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -721,13 +720,13 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -735,13 +734,13 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
         <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -749,27 +748,31 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1">
+        <v>-98.89510608152028</v>
+      </c>
       <c r="D18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -777,13 +780,13 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -791,13 +794,13 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -805,24 +808,108 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
         <v>22</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A2:A21"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C21"/>
+    <mergeCell ref="A2:A27"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="B18:B27"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="C18:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
